--- a/AXP_Model.xlsx
+++ b/AXP_Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F168E31D-3A12-44FC-B4C0-E3BE60E0142A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C4A1CF-A093-4FC4-AB0A-5A261B84ADEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31140" yWindow="3075" windowWidth="21495" windowHeight="11895" xr2:uid="{9AD469EE-4A41-47C5-A6B2-7BB1294AE897}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9AD469EE-4A41-47C5-A6B2-7BB1294AE897}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>Price</t>
   </si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Master</t>
   </si>
 </sst>
 </file>
@@ -593,7 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFBEA3D-F76E-426C-AE8D-DEE3E5654EDF}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -602,9 +599,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>44</v>
-      </c>
+      <c r="A1" s="11"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
@@ -698,9 +693,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{5A8120E5-7E2B-47B1-8AB5-AB0D4112CECF}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -709,7 +701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF975369-AF7C-44F0-8892-F39BB13D123F}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -718,7 +710,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" style="7" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="7"/>
   </cols>

--- a/AXP_Model.xlsx
+++ b/AXP_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C4A1CF-A093-4FC4-AB0A-5A261B84ADEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D479BC-7930-4EAC-AB86-32E30257F571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9AD469EE-4A41-47C5-A6B2-7BB1294AE897}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9AD469EE-4A41-47C5-A6B2-7BB1294AE897}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>

--- a/AXP_Model.xlsx
+++ b/AXP_Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D479BC-7930-4EAC-AB86-32E30257F571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F148257E-9D3F-4E17-9625-120B4A86EB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9AD469EE-4A41-47C5-A6B2-7BB1294AE897}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{9AD469EE-4A41-47C5-A6B2-7BB1294AE897}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -590,7 +590,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFBEA3D-F76E-426C-AE8D-DEE3E5654EDF}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView topLeftCell="G1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -612,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>270</v>
+        <v>284.02999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -626,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="3">
-        <v>702.53211099999999</v>
+        <v>702</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>6</v>
@@ -644,7 +646,7 @@
       </c>
       <c r="L4" s="3">
         <f>+L2*L3</f>
-        <v>189683.66996999999</v>
+        <v>199389.05999999997</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -681,7 +683,7 @@
       </c>
       <c r="L7" s="3">
         <f>+L4-L5+L6</f>
-        <v>135274.66996999999</v>
+        <v>144980.05999999997</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">

--- a/AXP_Model.xlsx
+++ b/AXP_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F148257E-9D3F-4E17-9625-120B4A86EB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB891456-22DC-4D80-A9AA-25082ADDE294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{9AD469EE-4A41-47C5-A6B2-7BB1294AE897}"/>
+    <workbookView xWindow="29385" yWindow="4065" windowWidth="14505" windowHeight="11055" xr2:uid="{9AD469EE-4A41-47C5-A6B2-7BB1294AE897}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -590,7 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFBEA3D-F76E-426C-AE8D-DEE3E5654EDF}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -703,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF975369-AF7C-44F0-8892-F39BB13D123F}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
